--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43125,6 +43125,43 @@
         <v>44500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43162,6 +43162,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43199,6 +43199,41 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>44500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43234,6 +43234,41 @@
         <v>44500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43269,6 +43269,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>519200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43304,6 +43304,43 @@
         <v>519200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43341,6 +43341,41 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>369500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43376,6 +43376,43 @@
         <v>369500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43413,6 +43413,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43448,6 +43448,41 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>232700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43483,6 +43483,41 @@
         <v>232700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>657300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43518,6 +43518,41 @@
         <v>657300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>228800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43553,6 +43553,76 @@
         <v>228800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>725400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43623,6 +43623,76 @@
         <v>725400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1459400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>389700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43693,6 +43693,43 @@
         <v>389700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43730,6 +43730,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>28100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43765,6 +43765,41 @@
         <v>28100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>101300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43800,6 +43800,41 @@
         <v>101300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>910800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43835,6 +43835,78 @@
         <v>910800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>221100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43907,6 +43907,41 @@
         </is>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>260000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43942,6 +43942,41 @@
         <v>260000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>939600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1504"/>
+  <dimension ref="A1:I1505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53182,6 +53182,41 @@
         <v>939600</v>
       </c>
     </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1505" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>64100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1505"/>
+  <dimension ref="A1:I1506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53217,6 +53217,41 @@
         <v>64100</v>
       </c>
     </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1506" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>1788100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1506"/>
+  <dimension ref="A1:I1507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53252,6 +53252,41 @@
         <v>1788100</v>
       </c>
     </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1507" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>196700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1507"/>
+  <dimension ref="A1:I1508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53287,6 +53287,41 @@
         <v>196700</v>
       </c>
     </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1508" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>1505300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1508"/>
+  <dimension ref="A1:I1509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53322,6 +53322,41 @@
         <v>1505300</v>
       </c>
     </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1509" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>1030100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1509"/>
+  <dimension ref="A1:I1510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53357,6 +53357,41 @@
         <v>1030100</v>
       </c>
     </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1510" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>1138700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1510"/>
+  <dimension ref="A1:I1511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53392,6 +53392,41 @@
         <v>1138700</v>
       </c>
     </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1511" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>1065000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1511"/>
+  <dimension ref="A1:I1512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53427,6 +53427,41 @@
         <v>1065000</v>
       </c>
     </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1512" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>1986600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1512"/>
+  <dimension ref="A1:I1513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53462,6 +53462,41 @@
         <v>1986600</v>
       </c>
     </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1513" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>500000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1513"/>
+  <dimension ref="A1:I1514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53497,6 +53497,41 @@
         <v>500000</v>
       </c>
     </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1514" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>345000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1514"/>
+  <dimension ref="A1:I1515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53532,6 +53532,41 @@
         <v>345000</v>
       </c>
     </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1515" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>21100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1515"/>
+  <dimension ref="A1:I1516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53567,6 +53567,41 @@
         <v>21100</v>
       </c>
     </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1516" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>892100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1516"/>
+  <dimension ref="A1:I1517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53602,6 +53602,41 @@
         <v>892100</v>
       </c>
     </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1517" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>440800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1517"/>
+  <dimension ref="A1:I1518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53637,6 +53637,41 @@
         <v>440800</v>
       </c>
     </row>
+    <row r="1518">
+      <c r="A1518" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1518" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1518"/>
+  <dimension ref="A1:I1519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53672,6 +53672,41 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="1519">
+      <c r="A1519" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1519" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>785100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1995"/>
+  <dimension ref="A1:I1996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70367,6 +70367,41 @@
         <v>785100</v>
       </c>
     </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1996" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1996" t="n">
+        <v>2147000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1996"/>
+  <dimension ref="A1:I1997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70402,6 +70402,41 @@
         <v>2147000</v>
       </c>
     </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1997" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1997" t="n">
+        <v>1232400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1997"/>
+  <dimension ref="A1:I1998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70437,6 +70437,41 @@
         <v>1232400</v>
       </c>
     </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1998" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1998" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1998" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1998" t="n">
+        <v>1143400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1998"/>
+  <dimension ref="A1:I1999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70472,6 +70472,41 @@
         <v>1143400</v>
       </c>
     </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E1999" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1999" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1999" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1999" t="n">
+        <v>611000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1999"/>
+  <dimension ref="A1:I2000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70507,6 +70507,41 @@
         <v>611000</v>
       </c>
     </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2000" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2000" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2000" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2000" t="n">
+        <v>1161400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2000"/>
+  <dimension ref="A1:I2001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70542,6 +70542,41 @@
         <v>1161400</v>
       </c>
     </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2001" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2001" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2001" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2001" t="n">
+        <v>1432700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2001"/>
+  <dimension ref="A1:I2002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70577,6 +70577,41 @@
         <v>1432700</v>
       </c>
     </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2002" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2002" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2002" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2002" t="n">
+        <v>550000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2002"/>
+  <dimension ref="A1:I2003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70612,6 +70612,41 @@
         <v>550000</v>
       </c>
     </row>
+    <row r="2003">
+      <c r="A2003" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2003" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2003" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2003" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2003" t="n">
+        <v>2692700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2003"/>
+  <dimension ref="A1:I2004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70647,6 +70647,41 @@
         <v>2692700</v>
       </c>
     </row>
+    <row r="2004">
+      <c r="A2004" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2004" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2004" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2004" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2004" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2004" t="n">
+        <v>430000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2004"/>
+  <dimension ref="A1:I2005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70682,6 +70682,41 @@
         <v>430000</v>
       </c>
     </row>
+    <row r="2005">
+      <c r="A2005" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2005" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2005" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2005" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2005" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2005" t="n">
+        <v>461000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2005"/>
+  <dimension ref="A1:I2007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70717,6 +70717,76 @@
         <v>461000</v>
       </c>
     </row>
+    <row r="2006">
+      <c r="A2006" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2006" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2006" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2006" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2006" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2006" t="n">
+        <v>1060000</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2007" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2007" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2007" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2007" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2007" t="n">
+        <v>892300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2007"/>
+  <dimension ref="A1:I2008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70787,6 +70787,41 @@
         <v>892300</v>
       </c>
     </row>
+    <row r="2008">
+      <c r="A2008" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2008" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2008" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2008" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2008" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2008" t="n">
+        <v>2050000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2008"/>
+  <dimension ref="A1:I2011"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70822,6 +70822,111 @@
         <v>2050000</v>
       </c>
     </row>
+    <row r="2009">
+      <c r="A2009" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2009" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2009" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2009" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2009" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2009" t="n">
+        <v>887100</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2010" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2010" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2010" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2010" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2010" t="n">
+        <v>869600</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2011" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2011" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2011" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2011" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2011" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2011" t="n">
+        <v>1079400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2011"/>
+  <dimension ref="A1:I2012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70927,6 +70927,41 @@
         <v>1079400</v>
       </c>
     </row>
+    <row r="2012">
+      <c r="A2012" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2012" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2012" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2012" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2012" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2012" t="n">
+        <v>1907000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2012"/>
+  <dimension ref="A1:I2013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70962,6 +70962,41 @@
         <v>1907000</v>
       </c>
     </row>
+    <row r="2013">
+      <c r="A2013" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2013" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2013" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2013" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2013" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2013" t="n">
+        <v>782200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0105.xlsx
+++ b/data/0105.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2013"/>
+  <dimension ref="A1:I2016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70997,6 +70997,111 @@
         <v>782200</v>
       </c>
     </row>
+    <row r="2014">
+      <c r="A2014" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2014" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2014" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2014" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2014" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2014" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2014" t="n">
+        <v>19692600</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2015" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2015" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2015" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2015" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2015" t="n">
+        <v>14630700</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+      <c r="D2016" t="inlineStr">
+        <is>
+          <t>ASIAPLY</t>
+        </is>
+      </c>
+      <c r="E2016" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2016" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2016" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2016" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2016" t="n">
+        <v>3053600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
